--- a/OC_Valen_FI0123_FF1024_V2.xlsx
+++ b/OC_Valen_FI0123_FF1024_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iacsas-my.sharepoint.com/personal/valentina_gomez_iac_com_co/Documents/OC_SPY_OPTIM/datasets/out/accuracy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_1D452636166240DFE54878D6425DCE3A8746E872" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C630D369-35B1-D14E-8DAC-A6966BAA22A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41AF495-573B-484E-8E7E-91050CC974B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,21 +447,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="L188" sqref="L188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -518,11 +514,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <f>AVERAGE(H2:H197)*100</f>
-        <v>76.530612244897952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <f>AVERAGE(H2:H196)*100</f>
+        <v>76.410256410256409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -549,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -576,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -603,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -630,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -657,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -684,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -711,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -738,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -765,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -792,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -819,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -846,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -873,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -900,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -927,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -954,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -981,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1008,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1035,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1062,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1089,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1170,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1197,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1224,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1251,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1278,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1305,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1332,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1359,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1386,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1413,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1440,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1521,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1548,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1575,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1656,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1683,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1710,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1764,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1791,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1818,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1845,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1926,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1953,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2007,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2061,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2115,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2142,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2169,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2331,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2358,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2385,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2439,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2466,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2574,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2628,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2682,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2709,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2763,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2790,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2871,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2898,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2925,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2979,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3006,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3033,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3060,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3087,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3114,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3168,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3195,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3222,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3249,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3276,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3303,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3357,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3411,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3438,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3465,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3492,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3519,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3546,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3573,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3600,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3654,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3681,7 +3677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3708,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3735,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3789,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3870,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3897,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3978,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4005,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4032,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4059,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4086,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4113,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4194,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4275,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4329,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4410,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4437,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4545,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4572,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4599,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4626,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4653,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4680,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4761,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4788,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4815,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4842,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4869,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4896,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4923,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4950,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4977,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5004,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5031,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5085,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5112,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5139,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5166,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5193,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5220,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5247,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5274,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5328,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5355,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5382,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5409,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5436,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5463,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5490,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5517,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5544,7 +5540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5571,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5625,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5652,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5706,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5729,11 +5725,11 @@
         <v>580.83000000000004</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H197" si="3">IF(E195=D195,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H195:H196" si="3">IF(E195=D195,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5760,35 +5756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>452</v>
-      </c>
-      <c r="C197" s="2">
-        <v>45594</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197">
-        <v>579.85</v>
-      </c>
-      <c r="G197">
-        <v>581.77</v>
-      </c>
-      <c r="H197">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
